--- a/content/post/2022-03-26-regression-models/data/Professor_Proposes_Data.xlsx
+++ b/content/post/2022-03-26-regression-models/data/Professor_Proposes_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kthay\OneDrive\Desktop\mkthayer\content\post\2022-03-26-regression-models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B8F97E-E546-480C-A13F-DE5B1EF9B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA7E8BA-3135-4C9B-82CB-5160E00851FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
